--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.crossReference.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.crossReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,7 +337,7 @@
     <t>Reference to another product, e.g. for linking authorised to investigational product.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.crossReference.product` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+    <t>Element `MedicinalProductDefinition.crossReference.product` is will have a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:product.id</t>
@@ -455,7 +455,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:product.extension:concept.id</t>
@@ -486,7 +486,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -534,7 +534,7 @@
     <t>The type of relationship, for instance branded to generic, virtual to actual product, product to development product (investigational), parallel import version.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.crossReference.type` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+    <t>Element `MedicinalProductDefinition.crossReference.type` is will have a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -895,7 +895,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="121.95703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="171.65234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.crossReference.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.crossReference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="175">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `MedicinalProductDefinition.crossReference` 0..* `BackboneElement`
 *  R4: `MedicinalProduct.crossReference` 0..* `Identifier`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.crossReference` is mapped to FHIR R4 element `MedicinalProduct.crossReference`.</t>
+Element `MedicinalProductDefinition.crossReference` has is mapped to FHIR R4 element `MedicinalProduct.crossReference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -337,7 +337,8 @@
     <t>Reference to another product, e.g. for linking authorised to investigational product.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.crossReference.product` is will have a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.crossReference.product` is part of an existing definition because parent element `MedicinalProductDefinition.crossReference` requires a cross-version extension.
+Element `MedicinalProductDefinition.crossReference.product` has a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:product.id</t>
@@ -454,8 +455,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:product.extension:concept.id</t>
@@ -486,8 +487,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:product.extension:reference.id</t>
@@ -512,6 +513,9 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.crossReference.product</t>
+  </si>
+  <si>
     <t>Extension.extension:product.value[x]</t>
   </si>
   <si>
@@ -534,7 +538,8 @@
     <t>The type of relationship, for instance branded to generic, virtual to actual product, product to development product (investigational), parallel import version.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.crossReference.type` is will have a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.crossReference.type` is part of an existing definition because parent element `MedicinalProductDefinition.crossReference` requires a cross-version extension.
+Element `MedicinalProductDefinition.crossReference.type` has a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -544,6 +549,9 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.crossReference.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -895,7 +903,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="171.65234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="165.66796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3268,7 +3276,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3330,10 +3338,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3356,7 +3364,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>130</v>
@@ -3433,13 +3441,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3464,14 +3472,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3540,7 +3548,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>104</v>
@@ -3643,7 +3651,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>106</v>
@@ -3748,7 +3756,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>157</v>
@@ -3791,7 +3799,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3853,10 +3861,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3882,10 +3890,10 @@
         <v>145</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3912,13 +3920,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4087,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>130</v>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.crossReference.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.crossReference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,8 +455,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:product.extension:concept.id</t>
@@ -487,8 +486,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:product.extension:reference.id</t>
@@ -503,7 +501,7 @@
     <t>Extension.extension:product.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct)
 </t>
   </si>
   <si>
@@ -563,7 +561,7 @@
     <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicinal-product-cross-reference-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-cross-reference-type-for-R4</t>
   </si>
 </sst>
 </file>
@@ -914,7 +912,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="89.7890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.crossReference.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.crossReference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="173">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `MedicinalProductDefinition.crossReference` 0..* `BackboneElement`
 *  R4: `MedicinalProduct.crossReference` 0..* `Identifier`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.crossReference` has is mapped to FHIR R4 element `MedicinalProduct.crossReference`, but has no comparisons.</t>
+Element `MedicinalProductDefinition.crossReference` is mapped to FHIR R4 element `MedicinalProduct.crossReference` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -337,8 +337,7 @@
     <t>Reference to another product, e.g. for linking authorised to investigational product.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.crossReference.product` is part of an existing definition because parent element `MedicinalProductDefinition.crossReference` requires a cross-version extension.
-Element `MedicinalProductDefinition.crossReference.product` has a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.crossReference.product` has a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:product.id</t>
@@ -455,7 +454,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:product.extension:concept.id</t>
@@ -486,7 +485,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:product.extension:reference.id</t>
@@ -501,7 +500,7 @@
     <t>Extension.extension:product.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1)
 </t>
   </si>
   <si>
@@ -509,9 +508,6 @@
   </si>
   <si>
     <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.crossReference.product</t>
   </si>
   <si>
     <t>Extension.extension:product.value[x]</t>
@@ -536,8 +532,7 @@
     <t>The type of relationship, for instance branded to generic, virtual to actual product, product to development product (investigational), parallel import version.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.crossReference.type` is part of an existing definition because parent element `MedicinalProductDefinition.crossReference` requires a cross-version extension.
-Element `MedicinalProductDefinition.crossReference.type` has a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.crossReference.type` has a context of MedicinalProduct.crossReference based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -549,9 +544,6 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.crossReference.type</t>
-  </si>
-  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -561,7 +553,7 @@
     <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-cross-reference-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-cross-reference-type-for-R4|0.0.1-snapshot-3</t>
   </si>
 </sst>
 </file>
@@ -912,7 +904,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.70703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3274,7 +3266,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3336,10 +3328,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3362,7 +3354,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>130</v>
@@ -3439,13 +3431,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3470,14 +3462,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3546,7 +3538,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>104</v>
@@ -3649,7 +3641,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>106</v>
@@ -3754,7 +3746,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>157</v>
@@ -3797,7 +3789,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3859,10 +3851,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3888,10 +3880,10 @@
         <v>145</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3918,13 +3910,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4093,7 +4085,7 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>130</v>
